--- a/sites/all/modules/reports/reports_drivers/blank_3.xlsx
+++ b/sites/all/modules/reports/reports_drivers/blank_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="570" windowWidth="28455" windowHeight="11700"/>
+    <workbookView xWindow="330" yWindow="600" windowWidth="20775" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="stat" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -359,24 +365,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="42" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
